--- a/client/src/assets/eMASS_Template.xlsx
+++ b/client/src/assets/eMASS_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43083A0-1452-4D76-9243-AD96ADA5B2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB278F8-5CDC-4847-B7CB-2B5A22C9159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42010" yWindow="2200" windowWidth="25230" windowHeight="18680" tabRatio="527" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13690" yWindow="1660" windowWidth="28280" windowHeight="18210" tabRatio="527" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POA&amp;M" sheetId="13" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1426,13 +1426,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1999,7 +1992,7 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2102,13 +2095,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,52 +2129,52 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2204,19 +2194,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,10 +2233,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,40 +2284,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2342,14 +2332,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2766,7 +2759,7 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L2:M6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -2778,10 +2771,9 @@
     <col min="5" max="5" width="17.26953125" style="20" customWidth="1"/>
     <col min="6" max="6" width="18.26953125" style="20" customWidth="1"/>
     <col min="7" max="7" width="18.7265625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="23.54296875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" style="40" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="25" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" style="20" customWidth="1"/>
+    <col min="10" max="11" width="30.6328125" style="20" customWidth="1"/>
     <col min="12" max="12" width="26.81640625" style="20" customWidth="1"/>
     <col min="13" max="13" width="20.1796875" style="20" customWidth="1"/>
     <col min="14" max="14" width="24" style="20" customWidth="1"/>
@@ -2803,61 +2795,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="37"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="36"/>
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="93" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
       <c r="R2" s="29"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
@@ -2870,25 +2862,25 @@
       <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:28" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="30"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -2901,27 +2893,27 @@
       <c r="AA3" s="27"/>
     </row>
     <row r="4" spans="1:28" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="70" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="75"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="74"/>
       <c r="R4" s="30"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -2934,29 +2926,29 @@
       <c r="AA4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="85"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="30"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -2969,27 +2961,27 @@
       <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="31"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -3003,7 +2995,7 @@
     </row>
     <row r="7" spans="1:28" s="21" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -3024,7 +3016,7 @@
       <c r="H7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="61" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -3083,197 +3075,197 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="63"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
-      <c r="V8" s="34"/>
+      <c r="V8" s="33"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
-      <c r="Y8" s="33"/>
+      <c r="Y8" s="32"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="20"/>
     </row>
     <row r="9" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="34"/>
+      <c r="V9" s="33"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="34"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="33"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="34"/>
+      <c r="V10" s="33"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
-      <c r="Y10" s="35"/>
+      <c r="Y10" s="34"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="35"/>
+      <c r="V11" s="34"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
-      <c r="Y11" s="35"/>
+      <c r="Y11" s="34"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="32"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="35"/>
+      <c r="Y12" s="34"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="34"/>
+      <c r="V13" s="33"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="34"/>
+      <c r="Y13" s="33"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -3288,50 +3280,50 @@
     <row r="15" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="34"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
-      <c r="Y15" s="34"/>
+      <c r="Y15" s="33"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -3346,21 +3338,21 @@
     <row r="17" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -3375,26 +3367,26 @@
     <row r="18" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="32"/>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -3404,171 +3396,171 @@
     <row r="19" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
-      <c r="V19" s="33"/>
+      <c r="V19" s="32"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
-      <c r="Y19" s="35"/>
+      <c r="Y19" s="34"/>
       <c r="Z19" s="22"/>
       <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
-      <c r="V20" s="33"/>
+      <c r="V20" s="32"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
-      <c r="Y20" s="35"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="22"/>
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
-      <c r="V21" s="35"/>
+      <c r="V21" s="34"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="33"/>
+      <c r="Y21" s="32"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
-      <c r="V22" s="33"/>
+      <c r="V22" s="32"/>
       <c r="W22" s="22"/>
       <c r="X22" s="22"/>
-      <c r="Y22" s="35"/>
+      <c r="Y22" s="34"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
-      <c r="V23" s="33"/>
+      <c r="V23" s="32"/>
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
-      <c r="Y23" s="35"/>
+      <c r="Y23" s="34"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="32"/>
       <c r="W24" s="22"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
@@ -3578,26 +3570,26 @@
     <row r="25" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
-      <c r="V25" s="33"/>
+      <c r="V25" s="32"/>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
@@ -3607,21 +3599,21 @@
     <row r="26" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3636,21 +3628,21 @@
     <row r="27" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3665,21 +3657,21 @@
     <row r="28" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3694,21 +3686,21 @@
     <row r="29" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3723,21 +3715,21 @@
     <row r="30" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3752,50 +3744,50 @@
     <row r="31" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
       <c r="U31" s="22"/>
-      <c r="V31" s="34"/>
+      <c r="V31" s="33"/>
       <c r="W31" s="22"/>
       <c r="X31" s="22"/>
-      <c r="Y31" s="34"/>
+      <c r="Y31" s="33"/>
       <c r="Z31" s="22"/>
       <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
@@ -3810,21 +3802,21 @@
     <row r="33" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -3839,21 +3831,21 @@
     <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
@@ -3868,21 +3860,21 @@
     <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -3897,21 +3889,21 @@
     <row r="36" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
@@ -3926,21 +3918,21 @@
     <row r="37" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
@@ -3955,21 +3947,21 @@
     <row r="38" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
@@ -3984,21 +3976,21 @@
     <row r="39" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
@@ -4013,21 +4005,21 @@
     <row r="40" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
@@ -4042,21 +4034,21 @@
     <row r="41" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
@@ -4071,21 +4063,21 @@
     <row r="42" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
@@ -4098,33 +4090,33 @@
       <c r="AA42" s="20"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
@@ -4156,23 +4148,15 @@
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Very Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
@@ -9731,8 +9715,8 @@
     <col min="3" max="3" width="34.453125" style="20" customWidth="1"/>
     <col min="4" max="6" width="18.453125" style="20" customWidth="1"/>
     <col min="7" max="7" width="15.453125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="35" customWidth="1"/>
     <col min="10" max="11" width="27.1796875" style="20" customWidth="1"/>
     <col min="12" max="12" width="21.453125" style="20" customWidth="1"/>
     <col min="13" max="13" width="24.7265625" style="20" customWidth="1"/>
@@ -9751,67 +9735,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="37"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="36"/>
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="93" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="73">
+      <c r="O2" s="72">
         <v>54324</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
       <c r="R2" s="29"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
@@ -9824,27 +9808,27 @@
       <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="30"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
@@ -9857,31 +9841,31 @@
       <c r="AA3" s="27"/>
     </row>
     <row r="4" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="82" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="81" t="s">
         <v>344</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="70" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="75"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="74"/>
       <c r="R4" s="30"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -9894,35 +9878,35 @@
       <c r="AA4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="95"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="84">
+      <c r="O5" s="83">
         <v>10000</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
       <c r="R5" s="30"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
@@ -9935,31 +9919,31 @@
       <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="82">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="81">
         <v>5050</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="95"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="95" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="31"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -9994,7 +9978,7 @@
       <c r="H7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="61" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -10053,20 +10037,20 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="18" customFormat="1" ht="93" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63">
         <v>1</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>351</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -10075,56 +10059,56 @@
       <c r="H8" s="15">
         <v>43427</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="62">
         <v>1</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="62" t="s">
         <v>357</v>
       </c>
       <c r="R8" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="40" t="s">
+      <c r="T8" s="39" t="s">
         <v>42</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="V8" s="40" t="s">
+      <c r="V8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="39" t="s">
         <v>42</v>
       </c>
       <c r="X8" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" s="39" t="s">
+      <c r="Y8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="39" t="s">
+      <c r="Z8" s="38" t="s">
         <v>361</v>
       </c>
       <c r="AA8" s="20" t="s">
@@ -10134,67 +10118,67 @@
     <row r="9" spans="1:28" s="18" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="63">
+      <c r="I9" s="62">
         <v>2</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="63"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="62"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
       <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:28" s="18" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="63">
+      <c r="I10" s="62">
         <v>3</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="63"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
       <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:28" s="18" customFormat="1" ht="93" x14ac:dyDescent="0.25">
@@ -10202,68 +10186,68 @@
       <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>365</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>352</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63" t="s">
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="Q11" s="63" t="s">
+      <c r="Q11" s="62" t="s">
         <v>357</v>
       </c>
       <c r="R11" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="37" t="s">
         <v>43</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="V11" s="43" t="s">
+      <c r="V11" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="38" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="Y11" s="42" t="s">
+      <c r="Y11" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="Z11" s="38" t="s">
         <v>361</v>
       </c>
       <c r="AA11" s="20" t="s">
@@ -10275,72 +10259,72 @@
       <c r="B12" s="22">
         <v>3</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="14" t="s">
         <v>352</v>
       </c>
       <c r="H12" s="17">
         <v>43398</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="63">
         <v>4</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="Q12" s="63" t="s">
+      <c r="Q12" s="62" t="s">
         <v>357</v>
       </c>
       <c r="R12" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="37" t="s">
         <v>41</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="V12" s="39" t="s">
+      <c r="V12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="39" t="s">
+      <c r="W12" s="38" t="s">
         <v>42</v>
       </c>
       <c r="X12" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="Y12" s="39" t="s">
+      <c r="Y12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="39" t="s">
+      <c r="Z12" s="38" t="s">
         <v>361</v>
       </c>
       <c r="AA12" s="20" t="s">
@@ -10350,171 +10334,171 @@
     <row r="13" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="34"/>
+      <c r="V13" s="33"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="35"/>
+      <c r="Y13" s="34"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="33"/>
+      <c r="V14" s="32"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
-      <c r="Y14" s="35"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="35"/>
+      <c r="V15" s="34"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
-      <c r="Y15" s="33"/>
+      <c r="Y15" s="32"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
-      <c r="V16" s="33"/>
+      <c r="V16" s="32"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="35"/>
+      <c r="Y16" s="34"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="33"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
-      <c r="Y17" s="35"/>
+      <c r="Y17" s="34"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="32"/>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -10524,26 +10508,26 @@
     <row r="19" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
-      <c r="V19" s="33"/>
+      <c r="V19" s="32"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="22"/>
@@ -10553,21 +10537,21 @@
     <row r="20" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
@@ -10582,21 +10566,21 @@
     <row r="21" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -10611,21 +10595,21 @@
     <row r="22" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -10640,21 +10624,21 @@
     <row r="23" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -10669,21 +10653,21 @@
     <row r="24" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -10698,50 +10682,50 @@
     <row r="25" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
-      <c r="V25" s="34"/>
+      <c r="V25" s="33"/>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
-      <c r="Y25" s="34"/>
+      <c r="Y25" s="33"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -10756,21 +10740,21 @@
     <row r="27" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -10785,21 +10769,21 @@
     <row r="28" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -10814,21 +10798,21 @@
     <row r="29" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -10843,21 +10827,21 @@
     <row r="30" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -10872,21 +10856,21 @@
     <row r="31" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
@@ -10901,21 +10885,21 @@
     <row r="32" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
@@ -10930,21 +10914,21 @@
     <row r="33" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -10959,21 +10943,21 @@
     <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
@@ -10988,21 +10972,21 @@
     <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -11017,21 +11001,21 @@
     <row r="36" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
@@ -11046,21 +11030,21 @@
     <row r="37" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
@@ -11075,21 +11059,21 @@
     <row r="38" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
@@ -11104,21 +11088,21 @@
     <row r="39" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
@@ -11133,21 +11117,21 @@
     <row r="40" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
@@ -11162,21 +11146,21 @@
     <row r="41" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
@@ -11191,21 +11175,21 @@
     <row r="42" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
@@ -11220,21 +11204,21 @@
     <row r="43" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22"/>
@@ -11249,26 +11233,26 @@
     <row r="44" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
-      <c r="V44" s="33"/>
+      <c r="V44" s="32"/>
       <c r="W44" s="22"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
@@ -11278,21 +11262,21 @@
     <row r="45" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
@@ -11307,21 +11291,21 @@
     <row r="46" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
@@ -11336,21 +11320,21 @@
     <row r="47" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
@@ -11365,21 +11349,21 @@
     <row r="48" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
@@ -11394,21 +11378,21 @@
     <row r="49" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
@@ -11423,21 +11407,21 @@
     <row r="50" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
@@ -11452,21 +11436,21 @@
     <row r="51" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
@@ -11507,23 +11491,15 @@
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Very Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O1048576 S7:T1048576 V7:W1048576 Y7:Y1048576 AA7:AA1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
@@ -11595,642 +11571,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:1" ht="58" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="101.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="246.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="145" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="66" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="174" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="66" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="46"/>
     </row>
     <row r="29" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="47" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="66" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="66" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49"/>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="105" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="109" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="108" t="s">
         <v>407</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
     </row>
     <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="112"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="111"/>
     </row>
     <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="49"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="71" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="49"/>
-      <c r="B42" s="98" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="98"/>
+      <c r="D42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="98"/>
+      <c r="D43" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="49"/>
-      <c r="B44" s="98" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="98"/>
+      <c r="D44" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="57" t="s">
+      <c r="H44" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="49"/>
-      <c r="B45" s="98" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="98"/>
+      <c r="D45" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
-      <c r="B46" s="100" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="59" t="s">
+      <c r="C46" s="100"/>
+      <c r="D46" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="60" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>408</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="115"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="114"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="104" t="s">
         <v>409</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="109" t="s">
+      <c r="C50" s="105"/>
+      <c r="D50" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="109"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="107"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="112"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="111"/>
     </row>
     <row r="52" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="107"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="71" t="s">
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G52" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="52" t="s">
+      <c r="C53" s="98"/>
+      <c r="D53" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="52" t="s">
+      <c r="C54" s="98"/>
+      <c r="D54" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="56" t="s">
+      <c r="H54" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="98"/>
+      <c r="D55" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G55" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="53" t="s">
+      <c r="G56" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="59" t="s">
+      <c r="C57" s="100"/>
+      <c r="D57" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G57" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="61" t="s">
+      <c r="H57" s="60" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12259,6 +12235,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="6f5892bc-22cd-4a99-882a-2b61b1b89693" xsi:nil="true"/>
@@ -12266,7 +12251,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E96D472923DCC4E95466E53D7022D29" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8dae2066730e74165572cfe4fcdb7422">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="90eb53ec-75d3-466a-a9b0-ffdacb6bdb76" xmlns:ns4="6f5892bc-22cd-4a99-882a-2b61b1b89693" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb3a61da332870523d9c782516982fe4" ns3:_="" ns4:_="">
     <xsd:import namespace="90eb53ec-75d3-466a-a9b0-ffdacb6bdb76"/>
@@ -12499,16 +12484,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13168A09-3BA4-402B-B6FC-E4FDC2296151}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C83BA52E-BF15-47D2-8B78-274CC45E37D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12518,7 +12502,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41301FC2-5A9C-4E98-9FB1-AEE2FDA7AFB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12537,14 +12521,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13168A09-3BA4-402B-B6FC-E4FDC2296151}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{51d9dc18-15ea-424b-b24d-55ab4d4e7519}" enabled="1" method="Privileged" siteId="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" contentBits="0" removed="0"/>
